--- a/Test status report error_user.xlsx
+++ b/Test status report error_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\Test status reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9C7A45-981B-4676-840B-DFB6AC7BB891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF200D8-272D-4743-9385-2A69E0A2BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="173">
   <si>
     <t>Test Suite/Scenario</t>
   </si>
@@ -221,11 +221,6 @@
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>1.open browser (Chrome) and acces website
-2.fill fields with valid credentials
-3.press "login"</t>
   </si>
   <si>
     <t>1.open browser (Chrome) and acces website
@@ -245,16 +240,6 @@
   <si>
     <t>1.open browser (Chrome) and acces website
 2.use a valid password and leave username field empty
-3.press "login"</t>
-  </si>
-  <si>
-    <t>1.open browser (Chrome) and acces website
-2.fill username field with capitals+ valid password
-3.press "login"</t>
-  </si>
-  <si>
-    <t>1.open browser (Chrome) and acces website
-2.fill password field with capitals+valid username
 3.press "login"</t>
   </si>
   <si>
@@ -382,15 +367,6 @@
 4.press menu option and logout
 5.relog with same credentials
 6.check cart</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.add 1 product in cart
-4.press cart icon
-5.press "checkout" button from cart form
-6.fill all fields with valid credentials
-7.press "continue" button</t>
   </si>
   <si>
     <t>1.open browser(Chrome) and acces website
@@ -408,26 +384,6 @@
 4.press cart icon
 5.press "checkout" button from cart form
 6.press "cancel" button</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.add 1 product in cart
-4.press cart icon
-5.press "checkout" button from cart form
-6.fill all fields with valid credentials
-7.press "continue" button from checkout form
-8.press "cancel" button</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.add 1 product in cart
-4.press cart icon
-5.press "checkout" button from cart form
-6.fill all fields with valid credentials
-7.press "continue" button
-8.verify product/s details+ press "finish" button</t>
   </si>
   <si>
     <t>check total price with 1 product in cart</t>
@@ -444,12 +400,294 @@
 9.check total price</t>
   </si>
   <si>
+    <t>Forward to "Homepage"</t>
+  </si>
+  <si>
+    <t>Displayed message: "Epic sadface: Password is required"</t>
+  </si>
+  <si>
+    <t>Displayed message: "Epic sadface: Username is required"</t>
+  </si>
+  <si>
+    <t>All products can be seen on the homepage</t>
+  </si>
+  <si>
+    <t>Forward to a new page with selected product only.</t>
+  </si>
+  <si>
+    <t>Forward back to the homepage</t>
+  </si>
+  <si>
+    <t>Products will be displayed in alphabetical order from A to Z</t>
+  </si>
+  <si>
+    <t>Products will be displayed in alphabetical order from Z to A</t>
+  </si>
+  <si>
+    <t>Products will be sorted by price from Low to High</t>
+  </si>
+  <si>
+    <t>Products will be sorted by price from High to Low</t>
+  </si>
+  <si>
+    <t>One product can be seen in cart
+"Add to cart" button changes to "Remove" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Six products can be seen in cart
+"Add to cart" button changes to "Remove" button for all products
+</t>
+  </si>
+  <si>
+    <t>Cart is empty
+"Remove" button changes to "Add to cart" button</t>
+  </si>
+  <si>
+    <t>Forward to homepage</t>
+  </si>
+  <si>
+    <t>Forward to another page</t>
+  </si>
+  <si>
+    <t>Forward to login form</t>
+  </si>
+  <si>
+    <t>Product is removed and cart is empty</t>
+  </si>
+  <si>
+    <t>Added product can be seen in cart with the correct details</t>
+  </si>
+  <si>
+    <t>Forward to checkout form</t>
+  </si>
+  <si>
+    <t>Checkout button is deactivated</t>
+  </si>
+  <si>
+    <t>Cart should contain the product added before relogin</t>
+  </si>
+  <si>
+    <t>Forward to checkout overview</t>
+  </si>
+  <si>
+    <t>Displayed message: "First name is required"</t>
+  </si>
+  <si>
+    <t>Displayed message: "Last name is required"</t>
+  </si>
+  <si>
+    <t>Displayed message: "Zip/PostalCode is required"</t>
+  </si>
+  <si>
+    <t>Sent back to cart form
+Cart should keep selected product</t>
+  </si>
+  <si>
+    <t>Sent back to products list (homepage)</t>
+  </si>
+  <si>
+    <t>Forward to checkout complete
+Message displayed: "Order completed"</t>
+  </si>
+  <si>
+    <t>Sent back to homepage</t>
+  </si>
+  <si>
+    <t>Cart should be empty</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.click on the picture of a product
+4.press "add to cart" button
+5.press "remove" button</t>
+  </si>
+  <si>
+    <t>First name: Blake
+Zip/PostalCode: 
+CM13 3EL</t>
+  </si>
+  <si>
+    <t>Last name: Jackson 
+Zip/PostalCode: 
+1110-1060</t>
+  </si>
+  <si>
+    <t>First name: Blake
+Second name: JACKSON</t>
+  </si>
+  <si>
+    <t>Displayed message: "Epic sadface: Username and password do not match any user in this service"</t>
+  </si>
+  <si>
+    <t>Username:standard_user
+Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Username:standard_user
+Password:123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username:standard_user
+</t>
+  </si>
+  <si>
+    <t>Username:qwerty
+Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Username:STANDARD_USER
+Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Username:standard_user
+Password:SECRET_SAUCE</t>
+  </si>
+  <si>
+    <t>First name: Blake
+Last name: Jackson 
+Zip/PostalCode: 
+1110-1060</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Message displayed: : "Sorting is broken! This error has been reported to Backtrace."</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>bug4</t>
+  </si>
+  <si>
+    <t>bug5</t>
+  </si>
+  <si>
+    <t>bug6</t>
+  </si>
+  <si>
+    <t>Only three products can be added in cart (Onesie, Lamp, Backpack)</t>
+  </si>
+  <si>
+    <t>bug8</t>
+  </si>
+  <si>
+    <t>Cart is empty
+"Remove" button changes back to "Add to cart" button</t>
+  </si>
+  <si>
+    <t>Product cant be removed from cart (from homepage)</t>
+  </si>
+  <si>
+    <t>Product can't be removed from cart (from single product page)</t>
+  </si>
+  <si>
+    <t>bug2</t>
+  </si>
+  <si>
+    <t>bug3</t>
+  </si>
+  <si>
+    <t>bug7</t>
+  </si>
+  <si>
+    <t>Checkout button is not deactivated and can be clicked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>Last name field can't be filled</t>
+  </si>
+  <si>
+    <t>bug9</t>
+  </si>
+  <si>
+    <t>bug10</t>
+  </si>
+  <si>
+    <t>Forward to checkout overview without filling in the last name field</t>
+  </si>
+  <si>
+    <t>Finish button cannot be pressed</t>
+  </si>
+  <si>
+    <t>bug11</t>
+  </si>
+  <si>
+    <t>1.open browser (Chrome) and acces website
+2.fill in the fields with valid credentials
+3.press "login"</t>
+  </si>
+  <si>
+    <t>1.open browser (Chrome) and acces website
+2.fill in the username field with capitals+ valid password
+3.press "login"</t>
+  </si>
+  <si>
+    <t>1.open browser (Chrome) and acces website
+2.fill in the password field with capitals+valid username
+3.press "login"</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.add 1 product in cart
+4.press cart icon
+5.press "checkout" button from cart form
+6.fill in all fields with valid credentials
+7.press "continue" button</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.add 1 product in cart
+4.press cart icon
+5.press "checkout" button from cart form
+6.leave last name field empty and fill other fields with valid credentials
+7.press "continue" button</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.add 1 product in cart
+4.press cart icon
+5.press "checkout" button from cart form
+6.leave zip/postalcode field empty and fill in the other fields with valid credentials
+7.press "continue" button</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.add 1 product in cart
+4.press cart icon
+5.press "checkout" button from cart form
+6.fill in all fields with valid credentials
+7.press "continue" button from checkout form
+8.press "cancel" button</t>
+  </si>
+  <si>
+    <t>1.open browser(Chrome) and acces website
+2.login with valid credentials
+3.add 1 product in cart
+4.press cart icon
+5.press "checkout" button from cart form
+6.fill in all fields with valid credentials
+7.press "continue" button
+8.verify product/s details+ press "finish" button</t>
+  </si>
+  <si>
     <t>1.open browser(Chrome) and acces website
 2.login with valid credentials
 3.add 6 products in cart
 4.press cart icon
 5.press "checkout" button from cart form
-6.fill all fields with valid credentials
+6.fill in all fields with valid credentials
 7.press "continue" button
 8.verify product/s details+ press "finish" button
 9.check total price</t>
@@ -460,7 +698,7 @@
 3.add 1 product in cart
 4.press cart icon
 5.press "checkout" button from cart form
-6.fill all fields with valid credentials
+6.fill in all fields with valid credentials
 7.press "continue" button
 8.press "finish" button
 9.check message and press "back home" button</t>
@@ -471,255 +709,20 @@
 3.add 1 product in cart
 4.press cart icon
 5.press "checkout" button from cart form
-6.fill all fields with valid credentials
+6.fill in all fields with valid credentials
 7.press "continue" button
 8.press "finish" button
 9.check message and press "back home" button
 10.check cart</t>
   </si>
   <si>
-    <t>Forward to "Homepage"</t>
-  </si>
-  <si>
-    <t>Displayed message: "Epic sadface: Password is required"</t>
-  </si>
-  <si>
-    <t>Displayed message: "Epic sadface: Username is required"</t>
-  </si>
-  <si>
-    <t>All products can be seen on the homepage</t>
-  </si>
-  <si>
-    <t>Forward to a new page with selected product only.</t>
-  </si>
-  <si>
-    <t>Forward back to the homepage</t>
-  </si>
-  <si>
-    <t>Products will be displayed in alphabetical order from A to Z</t>
-  </si>
-  <si>
-    <t>Products will be displayed in alphabetical order from Z to A</t>
-  </si>
-  <si>
-    <t>Products will be sorted by price from Low to High</t>
-  </si>
-  <si>
-    <t>Products will be sorted by price from High to Low</t>
-  </si>
-  <si>
-    <t>One product can be seen in cart
-"Add to cart" button changes to "Remove" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Six products can be seen in cart
-"Add to cart" button changes to "Remove" button for all products
-</t>
-  </si>
-  <si>
-    <t>Cart is empty
-"Remove" button changes to "Add to cart" button</t>
-  </si>
-  <si>
-    <t>Forward to homepage</t>
-  </si>
-  <si>
-    <t>Forward to another page</t>
-  </si>
-  <si>
-    <t>Forward to login form</t>
-  </si>
-  <si>
-    <t>Product is removed and cart is empty</t>
-  </si>
-  <si>
-    <t>Added product can be seen in cart with the correct details</t>
-  </si>
-  <si>
-    <t>Forward to checkout form</t>
-  </si>
-  <si>
-    <t>Checkout button is deactivated</t>
-  </si>
-  <si>
-    <t>Cart should contain the product added before relogin</t>
-  </si>
-  <si>
-    <t>Forward to checkout overview</t>
-  </si>
-  <si>
-    <t>Displayed message: "First name is required"</t>
-  </si>
-  <si>
-    <t>Displayed message: "Last name is required"</t>
-  </si>
-  <si>
-    <t>Displayed message: "Zip/PostalCode is required"</t>
-  </si>
-  <si>
-    <t>Sent back to cart form
-Cart should keep selected product</t>
-  </si>
-  <si>
-    <t>Sent back to products list (homepage)</t>
-  </si>
-  <si>
-    <t>Forward to checkout complete
-Message displayed: "Order completed"</t>
-  </si>
-  <si>
-    <t>Total price matches the product price</t>
-  </si>
-  <si>
-    <t>Total price is the sum of all products prices</t>
-  </si>
-  <si>
-    <t>Sent back to homepage</t>
-  </si>
-  <si>
-    <t>Cart should be empty</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.click on the picture of a product
-4.press "add to cart" button
-5.press "remove" button</t>
-  </si>
-  <si>
-    <t>First name: Blake
-Zip/PostalCode: 
-CM13 3EL</t>
-  </si>
-  <si>
-    <t>Last name: Jackson 
-Zip/PostalCode: 
-1110-1060</t>
-  </si>
-  <si>
-    <t>First name: Blake
-Second name: JACKSON</t>
-  </si>
-  <si>
-    <t>Displayed message: "Epic sadface: Username and password do not match any user in this service"</t>
-  </si>
-  <si>
-    <t>Username:standard_user
-Password:secret_sauce</t>
-  </si>
-  <si>
-    <t>Username:standard_user
-Password:123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username:standard_user
-</t>
-  </si>
-  <si>
-    <t>Username:qwerty
-Password:secret_sauce</t>
-  </si>
-  <si>
-    <t>Password:secret_sauce</t>
-  </si>
-  <si>
-    <t>Username:STANDARD_USER
-Password:secret_sauce</t>
-  </si>
-  <si>
-    <t>Username:standard_user
-Password:SECRET_SAUCE</t>
-  </si>
-  <si>
-    <t>First name: Blake
-Last name: Jackson 
-Zip/PostalCode: 
-1110-1060</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Message displayed: : "Sorting is broken! This error has been reported to Backtrace."</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>bug4</t>
-  </si>
-  <si>
-    <t>bug5</t>
-  </si>
-  <si>
-    <t>bug6</t>
-  </si>
-  <si>
-    <t>Only three products can be added in cart (Onesie, Lamp, Backpack)</t>
-  </si>
-  <si>
-    <t>bug8</t>
-  </si>
-  <si>
-    <t>Cart is empty
-"Remove" button changes back to "Add to cart" button</t>
-  </si>
-  <si>
-    <t>Product cant be removed from cart (from homepage)</t>
-  </si>
-  <si>
-    <t>Product can't be removed from cart (from single product page)</t>
-  </si>
-  <si>
-    <t>bug2</t>
-  </si>
-  <si>
-    <t>bug3</t>
-  </si>
-  <si>
-    <t>bug7</t>
-  </si>
-  <si>
-    <t>Checkout button is not deactivated and can be clicked</t>
-  </si>
-  <si>
-    <t>Blocked</t>
-  </si>
-  <si>
-    <t>Last name field can't be filled</t>
-  </si>
-  <si>
-    <t>bug9</t>
-  </si>
-  <si>
-    <t>bug10</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.add 1 product in cart
-4.press cart icon
-5.press "checkout" button from cart form
-6.leave zip/postalcode field empty and fill in other fields with valid credentials
-7.press "continue" button</t>
-  </si>
-  <si>
-    <t>Forward to checkout overview without filling in the last name field</t>
-  </si>
-  <si>
-    <t>1.open browser(Chrome) and acces website
-2.login with valid credentials
-3.add 1 product in cart
-4.press cart icon
-5.press "checkout" button from cart form
-6.leave last name field empty and fill in other fields with valid credentials
-7.press "continue" button</t>
-  </si>
-  <si>
-    <t>Finish button cannot be pressed</t>
-  </si>
-  <si>
-    <t>bug11</t>
+    <t>Total price matches the product price +TAX</t>
+  </si>
+  <si>
+    <t>Total price matches the product price+TAX</t>
+  </si>
+  <si>
+    <t>Total price is the sum of all products prices+TAX</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1367,19 +1370,19 @@
         <v>64</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K2" s="17"/>
     </row>
@@ -1398,19 +1401,19 @@
         <v>64</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K3" s="17"/>
     </row>
@@ -1429,19 +1432,19 @@
         <v>64</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K4" s="17"/>
     </row>
@@ -1460,19 +1463,19 @@
         <v>64</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -1491,19 +1494,19 @@
         <v>64</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K6" s="17"/>
     </row>
@@ -1522,13 +1525,13 @@
         <v>64</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="17"/>
@@ -1549,13 +1552,13 @@
         <v>64</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="17"/>
@@ -1578,19 +1581,19 @@
         <v>64</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K9" s="17"/>
     </row>
@@ -1609,19 +1612,19 @@
         <v>64</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -1640,19 +1643,19 @@
         <v>64</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K11" s="17"/>
     </row>
@@ -1671,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K12" s="17"/>
     </row>
@@ -1702,22 +1705,22 @@
         <v>64</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1735,22 +1738,22 @@
         <v>64</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,22 +1771,22 @@
         <v>64</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,19 +1804,19 @@
         <v>64</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -1832,22 +1835,22 @@
         <v>64</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1865,22 +1868,22 @@
         <v>64</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,19 +1901,19 @@
         <v>64</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -1929,19 +1932,19 @@
         <v>64</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K20" s="17"/>
     </row>
@@ -1960,19 +1963,19 @@
         <v>64</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K21" s="17"/>
     </row>
@@ -1991,19 +1994,19 @@
         <v>64</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K22" s="17"/>
     </row>
@@ -2022,22 +2025,22 @@
         <v>64</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J23" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2057,19 +2060,19 @@
         <v>64</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K24" s="17"/>
     </row>
@@ -2088,19 +2091,19 @@
         <v>64</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K25" s="17"/>
     </row>
@@ -2119,19 +2122,19 @@
         <v>64</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K26" s="17"/>
     </row>
@@ -2150,22 +2153,22 @@
         <v>64</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2183,19 +2186,19 @@
         <v>64</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I28" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K28" s="17"/>
     </row>
@@ -2214,20 +2217,20 @@
         <v>64</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,19 +2248,19 @@
         <v>64</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K30" s="17"/>
     </row>
@@ -2278,22 +2281,22 @@
         <v>64</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2311,20 +2314,20 @@
         <v>64</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2342,22 +2345,22 @@
         <v>64</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,20 +2378,20 @@
         <v>64</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,19 +2409,19 @@
         <v>64</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K35" s="17"/>
     </row>
@@ -2439,19 +2442,19 @@
         <v>64</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K36" s="17"/>
     </row>
@@ -2470,22 +2473,22 @@
         <v>64</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>97</v>
+        <v>166</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2494,7 +2497,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D38" s="17">
         <v>1</v>
@@ -2503,19 +2506,19 @@
         <v>64</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="K38" s="17"/>
     </row>
@@ -2534,20 +2537,20 @@
         <v>64</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,20 +2570,20 @@
         <v>64</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2598,20 +2601,20 @@
         <v>64</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="17" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Test status report error_user.xlsx
+++ b/Test status report error_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\Test status reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF200D8-272D-4743-9385-2A69E0A2BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CE1AF6-1629-499A-8860-E1928763E3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,9 +461,6 @@
     <t>Forward to checkout form</t>
   </si>
   <si>
-    <t>Checkout button is deactivated</t>
-  </si>
-  <si>
     <t>Cart should contain the product added before relogin</t>
   </si>
   <si>
@@ -594,9 +591,6 @@
   </si>
   <si>
     <t>bug7</t>
-  </si>
-  <si>
-    <t>Checkout button is not deactivated and can be clicked</t>
   </si>
   <si>
     <t>Blocked</t>
@@ -723,6 +717,12 @@
   </si>
   <si>
     <t>Total price is the sum of all products prices+TAX</t>
+  </si>
+  <si>
+    <t>Checkout button is not disabled and can be pressed</t>
+  </si>
+  <si>
+    <t>Checkout button is disabled</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1370,10 +1370,10 @@
         <v>64</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>94</v>
@@ -1382,7 +1382,7 @@
         <v>94</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K2" s="17"/>
     </row>
@@ -1404,16 +1404,16 @@
         <v>65</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3" s="17"/>
     </row>
@@ -1435,7 +1435,7 @@
         <v>66</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>95</v>
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K4" s="17"/>
     </row>
@@ -1466,16 +1466,16 @@
         <v>67</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -1497,7 +1497,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>96</v>
@@ -1506,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K6" s="17"/>
     </row>
@@ -1525,10 +1525,10 @@
         <v>64</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>94</v>
@@ -1552,10 +1552,10 @@
         <v>64</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="20" t="s">
         <v>94</v>
@@ -1584,7 +1584,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>97</v>
@@ -1593,7 +1593,7 @@
         <v>97</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K9" s="17"/>
     </row>
@@ -1615,7 +1615,7 @@
         <v>70</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>98</v>
@@ -1624,7 +1624,7 @@
         <v>98</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -1646,7 +1646,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>99</v>
@@ -1655,7 +1655,7 @@
         <v>99</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K11" s="17"/>
     </row>
@@ -1677,7 +1677,7 @@
         <v>72</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>100</v>
@@ -1686,7 +1686,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K12" s="17"/>
     </row>
@@ -1708,19 +1708,19 @@
         <v>73</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>101</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>139</v>
-      </c>
       <c r="K13" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,19 +1741,19 @@
         <v>75</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>139</v>
-      </c>
       <c r="K14" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,19 +1774,19 @@
         <v>74</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>103</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="K15" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,7 +1807,7 @@
         <v>76</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>104</v>
@@ -1816,7 +1816,7 @@
         <v>104</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -1838,19 +1838,19 @@
         <v>77</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>105</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1871,19 +1871,19 @@
         <v>78</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>106</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,7 +1904,7 @@
         <v>79</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>107</v>
@@ -1913,7 +1913,7 @@
         <v>107</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -1935,7 +1935,7 @@
         <v>80</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>108</v>
@@ -1944,7 +1944,7 @@
         <v>108</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K20" s="17"/>
     </row>
@@ -1966,7 +1966,7 @@
         <v>81</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>109</v>
@@ -1975,7 +1975,7 @@
         <v>109</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K21" s="17"/>
     </row>
@@ -1997,7 +1997,7 @@
         <v>82</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>104</v>
@@ -2006,7 +2006,7 @@
         <v>104</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K22" s="17"/>
     </row>
@@ -2025,22 +2025,22 @@
         <v>64</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,7 +2063,7 @@
         <v>84</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>110</v>
@@ -2072,7 +2072,7 @@
         <v>110</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K24" s="17"/>
     </row>
@@ -2094,7 +2094,7 @@
         <v>83</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>107</v>
@@ -2103,7 +2103,7 @@
         <v>107</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K25" s="17"/>
     </row>
@@ -2125,7 +2125,7 @@
         <v>85</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>111</v>
@@ -2134,7 +2134,7 @@
         <v>111</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K26" s="17"/>
     </row>
@@ -2156,19 +2156,19 @@
         <v>86</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
         <v>87</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>112</v>
@@ -2198,7 +2198,7 @@
         <v>112</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K28" s="17"/>
     </row>
@@ -2220,17 +2220,17 @@
         <v>88</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>112</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2251,16 +2251,16 @@
         <v>89</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K30" s="17"/>
     </row>
@@ -2281,22 +2281,22 @@
         <v>64</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,17 +2317,17 @@
         <v>90</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,22 +2345,22 @@
         <v>64</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2378,20 +2378,20 @@
         <v>64</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2412,16 +2412,16 @@
         <v>91</v>
       </c>
       <c r="G35" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J35" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J35" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="K35" s="17"/>
     </row>
@@ -2442,19 +2442,19 @@
         <v>64</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G36" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="J36" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="J36" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="K36" s="17"/>
     </row>
@@ -2473,22 +2473,22 @@
         <v>64</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2509,16 +2509,16 @@
         <v>93</v>
       </c>
       <c r="G38" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="K38" s="17"/>
     </row>
@@ -2537,20 +2537,20 @@
         <v>64</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,20 +2570,20 @@
         <v>64</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2601,20 +2601,20 @@
         <v>64</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Test status report error_user.xlsx
+++ b/Test status report error_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\Test status reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CE1AF6-1629-499A-8860-E1928763E3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB601EA2-C575-421F-BDD8-CB1A3D0CA47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="173">
   <si>
     <t>Test Suite/Scenario</t>
   </si>
@@ -517,31 +517,11 @@
     <t>Displayed message: "Epic sadface: Username and password do not match any user in this service"</t>
   </si>
   <si>
-    <t>Username:standard_user
-Password:secret_sauce</t>
-  </si>
-  <si>
-    <t>Username:standard_user
-Password:123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Username:standard_user
-</t>
-  </si>
-  <si>
     <t>Username:qwerty
 Password:secret_sauce</t>
   </si>
   <si>
     <t>Password:secret_sauce</t>
-  </si>
-  <si>
-    <t>Username:STANDARD_USER
-Password:secret_sauce</t>
-  </si>
-  <si>
-    <t>Username:standard_user
-Password:SECRET_SAUCE</t>
   </si>
   <si>
     <t>First name: Blake
@@ -576,9 +556,6 @@
   <si>
     <t>Cart is empty
 "Remove" button changes back to "Add to cart" button</t>
-  </si>
-  <si>
-    <t>Product cant be removed from cart (from homepage)</t>
   </si>
   <si>
     <t>Product can't be removed from cart (from single product page)</t>
@@ -723,6 +700,29 @@
   </si>
   <si>
     <t>Checkout button is disabled</t>
+  </si>
+  <si>
+    <t>Username:error_user
+Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Username:error_user
+Password:123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username:error_user
+</t>
+  </si>
+  <si>
+    <t>Username:ERROR_USER
+Password:secret_sauce</t>
+  </si>
+  <si>
+    <t>Username:error_user
+Password:SECRET_SAUCE</t>
+  </si>
+  <si>
+    <t>Product can't be removed from cart (from homepage)</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1370,10 +1370,10 @@
         <v>64</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>94</v>
@@ -1382,7 +1382,7 @@
         <v>94</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K2" s="17"/>
     </row>
@@ -1404,7 +1404,7 @@
         <v>65</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="H3" s="19" t="s">
         <v>127</v>
@@ -1413,7 +1413,7 @@
         <v>127</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K3" s="17"/>
     </row>
@@ -1435,7 +1435,7 @@
         <v>66</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>95</v>
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K4" s="17"/>
     </row>
@@ -1466,7 +1466,7 @@
         <v>67</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>127</v>
@@ -1475,7 +1475,7 @@
         <v>127</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -1497,7 +1497,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>96</v>
@@ -1506,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K6" s="17"/>
     </row>
@@ -1525,16 +1525,20 @@
         <v>64</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="17"/>
+        <v>170</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1552,16 +1556,20 @@
         <v>64</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="17"/>
+        <v>171</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>131</v>
+      </c>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1584,7 +1592,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>97</v>
@@ -1593,7 +1601,7 @@
         <v>97</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K9" s="17"/>
     </row>
@@ -1615,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>98</v>
@@ -1624,7 +1632,7 @@
         <v>98</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -1646,7 +1654,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>99</v>
@@ -1655,7 +1663,7 @@
         <v>99</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K11" s="17"/>
     </row>
@@ -1677,7 +1685,7 @@
         <v>72</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>100</v>
@@ -1686,7 +1694,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K12" s="17"/>
     </row>
@@ -1708,19 +1716,19 @@
         <v>73</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>101</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,19 +1749,19 @@
         <v>75</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1774,19 +1782,19 @@
         <v>74</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>103</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,7 +1815,7 @@
         <v>76</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>104</v>
@@ -1816,7 +1824,7 @@
         <v>104</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -1838,19 +1846,19 @@
         <v>77</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>105</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1871,19 +1879,19 @@
         <v>78</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>106</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,7 +1912,7 @@
         <v>79</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>107</v>
@@ -1913,7 +1921,7 @@
         <v>107</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -1935,7 +1943,7 @@
         <v>80</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>108</v>
@@ -1944,7 +1952,7 @@
         <v>108</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K20" s="17"/>
     </row>
@@ -1966,7 +1974,7 @@
         <v>81</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>109</v>
@@ -1975,7 +1983,7 @@
         <v>109</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K21" s="17"/>
     </row>
@@ -1997,7 +2005,7 @@
         <v>82</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>104</v>
@@ -2006,7 +2014,7 @@
         <v>104</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K22" s="17"/>
     </row>
@@ -2028,19 +2036,19 @@
         <v>123</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2063,7 +2071,7 @@
         <v>84</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>110</v>
@@ -2072,7 +2080,7 @@
         <v>110</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K24" s="17"/>
     </row>
@@ -2094,7 +2102,7 @@
         <v>83</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>107</v>
@@ -2103,7 +2111,7 @@
         <v>107</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K25" s="17"/>
     </row>
@@ -2125,7 +2133,7 @@
         <v>85</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>111</v>
@@ -2134,7 +2142,7 @@
         <v>111</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K26" s="17"/>
     </row>
@@ -2156,19 +2164,19 @@
         <v>86</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J27" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="17" t="s">
         <v>138</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,7 +2197,7 @@
         <v>87</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>112</v>
@@ -2198,7 +2206,7 @@
         <v>112</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K28" s="17"/>
     </row>
@@ -2220,17 +2228,17 @@
         <v>88</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>112</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2251,7 +2259,7 @@
         <v>89</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>113</v>
@@ -2260,7 +2268,7 @@
         <v>113</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K30" s="17"/>
     </row>
@@ -2281,22 +2289,22 @@
         <v>64</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>114</v>
       </c>
       <c r="I31" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2324,10 +2332,10 @@
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,7 +2353,7 @@
         <v>64</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>124</v>
@@ -2354,13 +2362,13 @@
         <v>116</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2378,7 +2386,7 @@
         <v>64</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>126</v>
@@ -2388,10 +2396,10 @@
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2412,7 +2420,7 @@
         <v>91</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>118</v>
@@ -2421,7 +2429,7 @@
         <v>118</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K35" s="17"/>
     </row>
@@ -2442,10 +2450,10 @@
         <v>64</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>119</v>
@@ -2454,7 +2462,7 @@
         <v>119</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K36" s="17"/>
     </row>
@@ -2473,22 +2481,22 @@
         <v>64</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>120</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2509,16 +2517,16 @@
         <v>93</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="I38" s="20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K38" s="17"/>
     </row>
@@ -2537,20 +2545,20 @@
         <v>64</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,20 +2578,20 @@
         <v>64</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>121</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2601,20 +2609,20 @@
         <v>64</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>122</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4041,7 +4049,7 @@
       </c>
       <c r="B2" s="2">
         <f>COUNTIF(TestCases!J1:P25,"Pass")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <f>COUNTIF(TestCases!J1:J25,"Fail")</f>
@@ -4053,7 +4061,7 @@
       </c>
       <c r="E2" s="2">
         <f>B2+C2</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3">
         <f>(D2/A2)*100</f>
@@ -4065,11 +4073,11 @@
       </c>
       <c r="H2" s="3">
         <f>(B2/A2)*100</f>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I2" s="4">
         <f>((B2+C2)/A2)*100</f>
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Test status report error_user.xlsx
+++ b/Test status report error_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IT School\Individual Project\Test status reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB601EA2-C575-421F-BDD8-CB1A3D0CA47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC9F792-817A-4442-B844-2976D749E777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,10 +510,6 @@
 1110-1060</t>
   </si>
   <si>
-    <t>First name: Blake
-Second name: JACKSON</t>
-  </si>
-  <si>
     <t>Displayed message: "Epic sadface: Username and password do not match any user in this service"</t>
   </si>
   <si>
@@ -723,6 +719,10 @@
   </si>
   <si>
     <t>Product can't be removed from cart (from homepage)</t>
+  </si>
+  <si>
+    <t>First name: Blake
+Last name: JACKSON</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K964"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1370,10 +1370,10 @@
         <v>64</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>94</v>
@@ -1382,7 +1382,7 @@
         <v>94</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" s="17"/>
     </row>
@@ -1404,16 +1404,16 @@
         <v>65</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K3" s="17"/>
     </row>
@@ -1435,7 +1435,7 @@
         <v>66</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="19" t="s">
         <v>95</v>
@@ -1444,7 +1444,7 @@
         <v>95</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" s="17"/>
     </row>
@@ -1466,16 +1466,16 @@
         <v>67</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" s="17"/>
     </row>
@@ -1497,7 +1497,7 @@
         <v>68</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>96</v>
@@ -1506,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" s="17"/>
     </row>
@@ -1525,19 +1525,19 @@
         <v>64</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" s="17"/>
     </row>
@@ -1556,19 +1556,19 @@
         <v>64</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" s="17"/>
     </row>
@@ -1592,7 +1592,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>97</v>
@@ -1601,7 +1601,7 @@
         <v>97</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" s="17"/>
     </row>
@@ -1623,7 +1623,7 @@
         <v>70</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>98</v>
@@ -1632,7 +1632,7 @@
         <v>98</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="17"/>
     </row>
@@ -1654,7 +1654,7 @@
         <v>71</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>99</v>
@@ -1663,7 +1663,7 @@
         <v>99</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" s="17"/>
     </row>
@@ -1685,7 +1685,7 @@
         <v>72</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H12" s="19" t="s">
         <v>100</v>
@@ -1694,7 +1694,7 @@
         <v>100</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K12" s="17"/>
     </row>
@@ -1716,19 +1716,19 @@
         <v>73</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>101</v>
       </c>
       <c r="I13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J13" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="K13" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,19 +1749,19 @@
         <v>75</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>102</v>
       </c>
       <c r="I14" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J14" s="17" t="s">
-        <v>133</v>
-      </c>
       <c r="K14" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1782,19 +1782,19 @@
         <v>74</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>103</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="K15" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,7 +1815,7 @@
         <v>76</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>104</v>
@@ -1824,7 +1824,7 @@
         <v>104</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K16" s="17"/>
     </row>
@@ -1846,19 +1846,19 @@
         <v>77</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="20" t="s">
         <v>105</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,19 +1879,19 @@
         <v>78</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" s="20" t="s">
         <v>106</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1912,7 +1912,7 @@
         <v>79</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>107</v>
@@ -1921,7 +1921,7 @@
         <v>107</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K19" s="17"/>
     </row>
@@ -1943,7 +1943,7 @@
         <v>80</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>108</v>
@@ -1952,7 +1952,7 @@
         <v>108</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" s="17"/>
     </row>
@@ -1974,7 +1974,7 @@
         <v>81</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>109</v>
@@ -1983,7 +1983,7 @@
         <v>109</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K21" s="17"/>
     </row>
@@ -2005,7 +2005,7 @@
         <v>82</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>104</v>
@@ -2014,7 +2014,7 @@
         <v>104</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K22" s="17"/>
     </row>
@@ -2036,19 +2036,19 @@
         <v>123</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H23" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="J23" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,7 +2071,7 @@
         <v>84</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>110</v>
@@ -2080,7 +2080,7 @@
         <v>110</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" s="17"/>
     </row>
@@ -2102,7 +2102,7 @@
         <v>83</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>107</v>
@@ -2111,7 +2111,7 @@
         <v>107</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K25" s="17"/>
     </row>
@@ -2133,7 +2133,7 @@
         <v>85</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>111</v>
@@ -2142,7 +2142,7 @@
         <v>111</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K26" s="17"/>
     </row>
@@ -2164,19 +2164,19 @@
         <v>86</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
         <v>87</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>112</v>
@@ -2206,7 +2206,7 @@
         <v>112</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28" s="17"/>
     </row>
@@ -2228,17 +2228,17 @@
         <v>88</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>112</v>
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
         <v>89</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>113</v>
@@ -2268,7 +2268,7 @@
         <v>113</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K30" s="17"/>
     </row>
@@ -2289,22 +2289,22 @@
         <v>64</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H31" s="20" t="s">
         <v>114</v>
       </c>
       <c r="I31" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,10 +2332,10 @@
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>64</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>124</v>
@@ -2362,13 +2362,13 @@
         <v>116</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2386,20 +2386,20 @@
         <v>64</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>117</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>91</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>118</v>
@@ -2429,7 +2429,7 @@
         <v>118</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K35" s="17"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>64</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>119</v>
@@ -2462,7 +2462,7 @@
         <v>119</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K36" s="17"/>
     </row>
@@ -2481,22 +2481,22 @@
         <v>64</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>120</v>
       </c>
       <c r="I37" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,16 +2517,16 @@
         <v>93</v>
       </c>
       <c r="G38" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>131</v>
       </c>
       <c r="K38" s="17"/>
     </row>
@@ -2545,20 +2545,20 @@
         <v>64</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2578,20 +2578,20 @@
         <v>64</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>121</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="100.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,20 +2609,20 @@
         <v>64</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>122</v>
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
